--- a/medicine/Mort/Liste_de_compositeurs_morts_pour_la_France/Liste_de_compositeurs_morts_pour_la_France.xlsx
+++ b/medicine/Mort/Liste_de_compositeurs_morts_pour_la_France/Liste_de_compositeurs_morts_pour_la_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page regroupe des compositeurs officiellement déclarés « morts pour la France ».
 </t>
@@ -511,7 +523,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jehan Alain (1940)
 Joseph Boulnois (1918)
@@ -548,7 +562,9 @@
           <t>Délai de protection du droit d'auteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la durée de protection des œuvres de ces compositeurs est augmentée de 30 ans, et, le cas échéant, des prorogations liées aux guerres mondiales.
 À la suite de la loi Lang 85-660 du 3 juillet 1985, ces prorogations ont été appliquées sur une durée de base de 70 ans post mortem, soit au total :
